--- a/data/Rel_gmdAC.xlsx
+++ b/data/Rel_gmdAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitHub\gmd_geral\gmd_geral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81D44D32-6F34-49D8-8EC5-C3ACC33F11D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54A64F-5FB5-4F24-99FC-21C282990859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9FA52078-664B-471A-BE9A-21A1ED9B6089}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>data2</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26DEBCA-38C0-495F-A31D-47C1134A3F4B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="A15" sqref="A15:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,6 +741,167 @@
         <v>14.4628205128205</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>43963</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>0.57204588780152998</v>
+      </c>
+      <c r="E15">
+        <v>179.40740740740699</v>
+      </c>
+      <c r="F15">
+        <v>546.51851851851802</v>
+      </c>
+      <c r="G15">
+        <v>21.850617283950601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>43965</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>0.62291011660073503</v>
+      </c>
+      <c r="E16">
+        <v>228.92857142857099</v>
+      </c>
+      <c r="F16">
+        <v>552.46428571428601</v>
+      </c>
+      <c r="G16">
+        <v>18.0571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>43982</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0.565461050740514</v>
+      </c>
+      <c r="E17">
+        <v>170.969696969697</v>
+      </c>
+      <c r="F17">
+        <v>543.63636363636397</v>
+      </c>
+      <c r="G17">
+        <v>22.284848484848499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>43983</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>0.64143741764197704</v>
+      </c>
+      <c r="E18">
+        <v>260.45588235294099</v>
+      </c>
+      <c r="F18">
+        <v>550.83823529411802</v>
+      </c>
+      <c r="G18">
+        <v>16.6093137254902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>44003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>0.50272249879890396</v>
+      </c>
+      <c r="E19">
+        <v>174.51428571428599</v>
+      </c>
+      <c r="F19">
+        <v>522.74285714285702</v>
+      </c>
+      <c r="G19">
+        <v>23.621904761904801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>44004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>0.60901841955588298</v>
+      </c>
+      <c r="E20">
+        <v>244.83720930232599</v>
+      </c>
+      <c r="F20">
+        <v>540.65116279069798</v>
+      </c>
+      <c r="G20">
+        <v>17.6457364341085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>44013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>0.67718829260511804</v>
+      </c>
+      <c r="E21">
+        <v>271.269230769231</v>
+      </c>
+      <c r="F21">
+        <v>532.15384615384596</v>
+      </c>
+      <c r="G21">
+        <v>14.4628205128205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Rel_gmdAC.xlsx
+++ b/data/Rel_gmdAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitHub\gmd_geral\gmd_geral\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54A64F-5FB5-4F24-99FC-21C282990859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E699CD-EAE8-4A30-8E8C-7DE8196C8E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9FA52078-664B-471A-BE9A-21A1ED9B6089}"/>
   </bookViews>
@@ -33,18 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>data2</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>cab</t>
-  </si>
-  <si>
-    <t>GPD</t>
   </si>
   <si>
     <t>peso1</t>
@@ -61,12 +52,48 @@
   <si>
     <t>TB</t>
   </si>
+  <si>
+    <t>local.y</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>gmd1</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>desvio</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>tcb</t>
+  </si>
+  <si>
+    <t>gmd_ac</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +101,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,13 +144,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,495 +472,1203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26DEBCA-38C0-495F-A31D-47C1134A3F4B}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I24"/>
+      <selection sqref="A1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43490</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.51921613198656802</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.51921613198656802</v>
+      </c>
+      <c r="F2">
+        <v>7.9163974357354894E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.152468248731923</v>
+      </c>
+      <c r="H2" s="1">
+        <v>184.56923076923101</v>
+      </c>
+      <c r="I2" s="4">
+        <v>184.56923076923101</v>
+      </c>
+      <c r="J2" s="1">
+        <v>521.43076923076899</v>
+      </c>
+      <c r="K2">
+        <v>21.974358974358999</v>
+      </c>
+      <c r="L2">
+        <v>0.37299465240641699</v>
+      </c>
+      <c r="M2">
+        <v>0.76763485477178395</v>
+      </c>
+      <c r="N2">
+        <v>65</v>
+      </c>
+      <c r="O2">
+        <v>0.51921613198656802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43495</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.431458517254525</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.47533732462054651</v>
+      </c>
+      <c r="F3">
+        <v>0.36453798841160401</v>
+      </c>
+      <c r="G3">
+        <v>0.84489695725848102</v>
+      </c>
+      <c r="H3" s="1">
+        <v>257.75</v>
+      </c>
+      <c r="I3" s="4">
+        <v>221.15961538461551</v>
+      </c>
+      <c r="J3" s="1">
+        <v>507</v>
+      </c>
+      <c r="K3">
+        <v>16.975000000000001</v>
+      </c>
+      <c r="L3">
+        <v>-0.43514644351464399</v>
+      </c>
+      <c r="M3">
+        <v>0.71047227926078005</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>0.431458517254525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43547</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.47547421565543602</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.4753829549655097</v>
+      </c>
+      <c r="F4">
+        <v>5.2208826541495702E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.109803696651619</v>
+      </c>
+      <c r="H4" s="1">
+        <v>180.611111111111</v>
+      </c>
+      <c r="I4" s="4">
+        <v>207.64344729344734</v>
+      </c>
+      <c r="J4" s="1">
+        <v>510.29629629629602</v>
+      </c>
+      <c r="K4">
+        <v>23.3308641975309</v>
+      </c>
+      <c r="L4">
+        <v>0.39869281045751598</v>
+      </c>
+      <c r="M4">
+        <v>0.686456400742115</v>
+      </c>
+      <c r="N4">
+        <v>54</v>
+      </c>
+      <c r="O4">
+        <v>0.47547421565543602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43579</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.52912126810867899</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.48881753325130201</v>
+      </c>
+      <c r="F5">
+        <v>9.6075426356810795E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.18157543865176401</v>
+      </c>
+      <c r="H5" s="1">
+        <v>194.36250000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>204.32321047008548</v>
+      </c>
+      <c r="J5" s="1">
+        <v>522.16250000000002</v>
+      </c>
+      <c r="K5">
+        <v>21.303750000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.341772151898734</v>
+      </c>
+      <c r="M5">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="N5">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>0.52912126810867899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.47339474451578201</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.48573297550419803</v>
+      </c>
+      <c r="F6">
+        <v>8.2548014962021202E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.17437459101168601</v>
+      </c>
+      <c r="H6" s="1">
+        <v>195.05660377358501</v>
+      </c>
+      <c r="I6" s="4">
+        <v>202.46988913078539</v>
+      </c>
+      <c r="J6" s="1">
+        <v>525.50943396226398</v>
+      </c>
+      <c r="K6">
+        <v>23.9327044025157</v>
+      </c>
+      <c r="L6">
+        <v>0.34080717488789197</v>
+      </c>
+      <c r="M6">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="N6">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>0.47339474451578201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43631</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.61032749704224598</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.50649872909387261</v>
+      </c>
+      <c r="F7">
+        <v>0.16308766827437199</v>
+      </c>
+      <c r="G7">
+        <v>0.26721337161560499</v>
+      </c>
+      <c r="H7" s="1">
+        <v>207.67948717948701</v>
+      </c>
+      <c r="I7" s="4">
+        <v>203.33815547223568</v>
+      </c>
+      <c r="J7" s="1">
+        <v>532.15384615384596</v>
+      </c>
+      <c r="K7">
+        <v>18.7995726495726</v>
+      </c>
+      <c r="L7">
+        <v>0.26972740315638399</v>
+      </c>
+      <c r="M7">
+        <v>1.25380710659898</v>
+      </c>
+      <c r="N7">
+        <v>78</v>
+      </c>
+      <c r="O7">
+        <v>0.61032749704224598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43658</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>78</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.56257224486040303</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.51450923134623416</v>
+      </c>
+      <c r="F8">
+        <v>0.13569294799343801</v>
+      </c>
+      <c r="G8">
+        <v>0.24120092882845501</v>
+      </c>
+      <c r="H8" s="1">
+        <v>187.44871794871801</v>
+      </c>
+      <c r="I8" s="4">
+        <v>201.06823582601888</v>
+      </c>
+      <c r="J8" s="1">
+        <v>539.23076923076906</v>
+      </c>
+      <c r="K8">
+        <v>21.695299145299099</v>
+      </c>
+      <c r="L8">
+        <v>0.37024972855591698</v>
+      </c>
+      <c r="M8">
+        <v>1.3136363636363599</v>
+      </c>
+      <c r="N8">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>0.56257224486040303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43664</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.56175164735196004</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.52041453334694987</v>
+      </c>
+      <c r="F9">
+        <v>7.7118513225210406E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.13728221997877399</v>
+      </c>
+      <c r="H9" s="1">
+        <v>201.144736842105</v>
+      </c>
+      <c r="I9" s="4">
+        <v>201.07779845302963</v>
+      </c>
+      <c r="J9" s="1">
+        <v>518.65789473684197</v>
+      </c>
+      <c r="K9">
+        <v>19.287719298245602</v>
+      </c>
+      <c r="L9">
+        <v>0.41836734693877597</v>
+      </c>
+      <c r="M9">
+        <v>0.90265486725663702</v>
+      </c>
+      <c r="N9">
+        <v>76</v>
+      </c>
+      <c r="O9">
+        <v>0.56175164735196004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43694</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.51625137832764001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.51995196056702653</v>
+      </c>
+      <c r="F10">
+        <v>0.108017390906542</v>
+      </c>
+      <c r="G10">
+        <v>0.209234096878262</v>
+      </c>
+      <c r="H10" s="1">
+        <v>197.98750000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>200.73443195824856</v>
+      </c>
+      <c r="J10" s="1">
+        <v>508.35</v>
+      </c>
+      <c r="K10">
+        <v>20.501249999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.30487804878048802</v>
+      </c>
+      <c r="M10">
+        <v>1.1653846153846199</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>0.51625137832764001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43710</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.433642369117135</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5113210014220374</v>
+      </c>
+      <c r="F11">
+        <v>0.100594742402948</v>
+      </c>
+      <c r="G11">
+        <v>0.23197627715149599</v>
+      </c>
+      <c r="H11" s="1">
+        <v>194.789473684211</v>
+      </c>
+      <c r="I11" s="4">
+        <v>200.1399361308448</v>
+      </c>
+      <c r="J11" s="1">
+        <v>473.78947368421098</v>
+      </c>
+      <c r="K11">
+        <v>22.350877192982502</v>
+      </c>
+      <c r="L11">
+        <v>0.18484042553191499</v>
+      </c>
+      <c r="M11">
+        <v>0.65804597701149403</v>
+      </c>
+      <c r="N11">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>0.433642369117135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43710</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.53121099187160503</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.51312918237199812</v>
+      </c>
+      <c r="F12">
+        <v>0.180086944687608</v>
+      </c>
+      <c r="G12">
+        <v>0.33901208266250499</v>
+      </c>
+      <c r="H12" s="1">
+        <v>330.55</v>
+      </c>
+      <c r="I12" s="4">
+        <v>211.99539648258622</v>
+      </c>
+      <c r="J12" s="1">
+        <v>474.05</v>
+      </c>
+      <c r="K12">
+        <v>8.0066666666666695</v>
+      </c>
+      <c r="L12">
+        <v>0.20175438596491199</v>
+      </c>
+      <c r="M12">
+        <v>0.741433021806854</v>
+      </c>
+      <c r="N12">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>0.48367756027327402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43871</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.57881618999876305</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.57881618999876305</v>
+      </c>
+      <c r="F13">
+        <v>9.6719890754059804E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.167099491039231</v>
+      </c>
+      <c r="H13" s="1">
+        <v>213.128205128205</v>
+      </c>
+      <c r="I13" s="7">
+        <v>213.128205128205</v>
+      </c>
+      <c r="J13" s="1">
+        <v>566.11538461538498</v>
+      </c>
+      <c r="K13">
+        <v>20.862820512820502</v>
+      </c>
+      <c r="L13">
+        <v>0.38238702201622199</v>
+      </c>
+      <c r="M13">
+        <v>0.82909930715935298</v>
+      </c>
+      <c r="N13">
+        <v>78</v>
+      </c>
+      <c r="O13">
+        <v>0.57881618999876305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.54845822930134003</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.56363720965005148</v>
+      </c>
+      <c r="F14">
+        <v>0.15326607318743299</v>
+      </c>
+      <c r="G14">
+        <v>0.27944894433013201</v>
+      </c>
+      <c r="H14" s="1">
+        <v>209.377358490566</v>
+      </c>
+      <c r="I14" s="7">
+        <v>211.25278180938551</v>
+      </c>
+      <c r="J14" s="1">
+        <v>563.18867924528297</v>
+      </c>
+      <c r="K14">
+        <v>22.692452830188699</v>
+      </c>
+      <c r="L14">
+        <v>0.39057239057239101</v>
+      </c>
+      <c r="M14">
+        <v>1.4893617021276599</v>
+      </c>
+      <c r="N14">
+        <v>53</v>
+      </c>
+      <c r="O14">
+        <v>0.54845822930134003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43935</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>43871</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>0.57881618999876305</v>
-      </c>
-      <c r="E2">
-        <v>213.128205128205</v>
-      </c>
-      <c r="F2">
-        <v>566.11538461538498</v>
-      </c>
-      <c r="G2">
-        <v>20.862820512820502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>43899</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>53</v>
-      </c>
-      <c r="D3">
-        <v>0.54845822930134003</v>
-      </c>
-      <c r="E3">
-        <v>209.377358490566</v>
-      </c>
-      <c r="F3">
-        <v>563.18867924528297</v>
-      </c>
-      <c r="G3">
-        <v>22.692452830188699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>43935</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="C15" s="6">
         <v>49</v>
       </c>
-      <c r="D4">
+      <c r="D15" s="7">
         <v>0.55147069712903796</v>
       </c>
-      <c r="E4">
+      <c r="E15" s="7">
+        <v>0.55958170547638031</v>
+      </c>
+      <c r="F15">
+        <v>7.1179372676375904E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.129071903633206</v>
+      </c>
+      <c r="H15" s="1">
         <v>181.93877551020401</v>
       </c>
-      <c r="F4">
+      <c r="I15" s="7">
+        <v>201.48144637632501</v>
+      </c>
+      <c r="J15" s="1">
         <v>554</v>
       </c>
-      <c r="G4">
+      <c r="K15">
         <v>22.683673469387799</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="L15">
+        <v>0.363259668508287</v>
+      </c>
+      <c r="M15">
+        <v>0.76659959758551299</v>
+      </c>
+      <c r="N15">
+        <v>49</v>
+      </c>
+      <c r="O15">
+        <v>0.55147069712903796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>43936</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="D16" s="7">
         <v>0.54876036605003098</v>
       </c>
-      <c r="E5">
+      <c r="E16" s="7">
+        <v>0.556876370619793</v>
+      </c>
+      <c r="F16">
+        <v>0.16222331794428901</v>
+      </c>
+      <c r="G16">
+        <v>0.29561777413330798</v>
+      </c>
+      <c r="H16" s="1">
         <v>235.39130434782601</v>
       </c>
-      <c r="F5">
+      <c r="I16" s="7">
+        <v>209.95891086920025</v>
+      </c>
+      <c r="J16" s="1">
         <v>575.86956521739103</v>
       </c>
-      <c r="G5">
+      <c r="K16">
         <v>22.349275362318799</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="L16">
+        <v>0.169660678642715</v>
+      </c>
+      <c r="M16">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="N16">
+        <v>46</v>
+      </c>
+      <c r="O16">
+        <v>0.54876036605003098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>43949</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
         <v>34</v>
       </c>
-      <c r="D6">
+      <c r="D17" s="7">
         <v>0.50700565344693005</v>
       </c>
-      <c r="E6">
+      <c r="E17" s="7">
+        <v>0.54690222718522041</v>
+      </c>
+      <c r="F17">
+        <v>5.7955950261132497E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.114310264327652</v>
+      </c>
+      <c r="H17" s="1">
         <v>174.88235294117601</v>
       </c>
-      <c r="F6">
+      <c r="I17" s="7">
+        <v>202.9435992835954</v>
+      </c>
+      <c r="J17" s="1">
         <v>526.05882352941205</v>
       </c>
-      <c r="G6">
+      <c r="K17">
         <v>23.278431372549001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="L17">
+        <v>0.40921409214092103</v>
+      </c>
+      <c r="M17">
+        <v>0.63600782778864995</v>
+      </c>
+      <c r="N17">
+        <v>34</v>
+      </c>
+      <c r="O17">
+        <v>0.50700565344693005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>43950</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
         <v>38</v>
       </c>
-      <c r="D7">
+      <c r="D18" s="7">
         <v>0.59028045990873501</v>
       </c>
-      <c r="E7">
+      <c r="E18" s="7">
+        <v>0.55413193263913951</v>
+      </c>
+      <c r="F18">
+        <v>0.20484381733183701</v>
+      </c>
+      <c r="G18">
+        <v>0.34702794899141398</v>
+      </c>
+      <c r="H18" s="1">
         <v>253.605263157895</v>
       </c>
-      <c r="F7">
+      <c r="I18" s="7">
+        <v>211.38720992931201</v>
+      </c>
+      <c r="J18" s="1">
         <v>566.78947368421098</v>
       </c>
-      <c r="G7">
+      <c r="K18">
         <v>19.336842105263202</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="L18">
+        <v>0.35047361299052798</v>
+      </c>
+      <c r="M18">
+        <v>1.6097560975609799</v>
+      </c>
+      <c r="N18">
+        <v>38</v>
+      </c>
+      <c r="O18">
+        <v>0.59028045990873501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>43963</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="D19" s="7">
         <v>0.57204588780152998</v>
       </c>
-      <c r="E8">
+      <c r="E19" s="7">
+        <v>0.5566910690909096</v>
+      </c>
+      <c r="F19">
+        <v>8.9789115879023995E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.156961386828772</v>
+      </c>
+      <c r="H19" s="1">
         <v>179.40740740740699</v>
       </c>
-      <c r="F8">
+      <c r="I19" s="7">
+        <v>206.81866671189701</v>
+      </c>
+      <c r="J19" s="1">
         <v>546.51851851851802</v>
       </c>
-      <c r="G8">
+      <c r="K19">
         <v>21.850617283950601</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="L19">
+        <v>0.372774869109948</v>
+      </c>
+      <c r="M19">
+        <v>0.706666666666667</v>
+      </c>
+      <c r="N19">
+        <v>27</v>
+      </c>
+      <c r="O19">
+        <v>0.57204588780152998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>43965</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D20" s="7">
         <v>0.62291011660073503</v>
       </c>
-      <c r="E9">
+      <c r="E20" s="7">
+        <v>0.5649684500296378</v>
+      </c>
+      <c r="F20">
+        <v>0.15441247294851801</v>
+      </c>
+      <c r="G20">
+        <v>0.247888850788229</v>
+      </c>
+      <c r="H20" s="1">
         <v>228.92857142857099</v>
       </c>
-      <c r="F9">
+      <c r="I20" s="7">
+        <v>209.58240480148123</v>
+      </c>
+      <c r="J20" s="1">
         <v>552.46428571428601</v>
       </c>
-      <c r="G9">
+      <c r="K20">
         <v>18.0571428571429</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="L20">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="M20">
+        <v>1.3035714285714299</v>
+      </c>
+      <c r="N20">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <v>0.62291011660073503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>43982</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="D21" s="7">
         <v>0.565461050740514</v>
       </c>
-      <c r="E10">
+      <c r="E21" s="7">
+        <v>0.56502318344195734</v>
+      </c>
+      <c r="F21">
+        <v>6.6862953427689206E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.118245020307105</v>
+      </c>
+      <c r="H21" s="1">
         <v>170.969696969697</v>
       </c>
-      <c r="F10">
+      <c r="I21" s="7">
+        <v>205.29210393128298</v>
+      </c>
+      <c r="J21" s="1">
         <v>543.63636363636397</v>
       </c>
-      <c r="G10">
+      <c r="K21">
         <v>22.284848484848499</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="L21">
+        <v>0.43283582089552203</v>
+      </c>
+      <c r="M21">
+        <v>0.69852941176470595</v>
+      </c>
+      <c r="N21">
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <v>0.565461050740514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>43983</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
         <v>68</v>
       </c>
-      <c r="D11">
+      <c r="D22" s="7">
         <v>0.64143741764197704</v>
       </c>
-      <c r="E11">
+      <c r="E22" s="7">
+        <v>0.5726646068619593</v>
+      </c>
+      <c r="F22">
+        <v>0.223015338064917</v>
+      </c>
+      <c r="G22">
+        <v>0.34768058727343298</v>
+      </c>
+      <c r="H22" s="1">
         <v>260.45588235294099</v>
       </c>
-      <c r="F11">
+      <c r="I22" s="7">
+        <v>210.80848177344879</v>
+      </c>
+      <c r="J22" s="1">
         <v>550.83823529411802</v>
       </c>
-      <c r="G11">
+      <c r="K22">
         <v>16.6093137254902</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="L22">
+        <v>0.39534883720930197</v>
+      </c>
+      <c r="M22">
+        <v>1.3015873015873001</v>
+      </c>
+      <c r="N22">
+        <v>68</v>
+      </c>
+      <c r="O22">
+        <v>0.64143741764197704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>44003</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D23" s="7">
         <v>0.50272249879890396</v>
       </c>
-      <c r="E12">
+      <c r="E23" s="7">
+        <v>0.56630623340168151</v>
+      </c>
+      <c r="F23">
+        <v>9.1070524466364197E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.18115466223204299</v>
+      </c>
+      <c r="H23" s="1">
         <v>174.51428571428599</v>
       </c>
-      <c r="F12">
+      <c r="I23" s="7">
+        <v>207.50900940443398</v>
+      </c>
+      <c r="J23" s="1">
         <v>522.74285714285702</v>
       </c>
-      <c r="G12">
+      <c r="K23">
         <v>23.621904761904801</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="L23">
+        <v>8.4181313598519894E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.62831858407079599</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
+      <c r="O23">
+        <v>0.50272249879890396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>44004</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
         <v>43</v>
       </c>
-      <c r="D13">
+      <c r="D24" s="7">
         <v>0.60901841955588298</v>
       </c>
-      <c r="E13">
+      <c r="E24" s="7">
+        <v>0.56986558224786499</v>
+      </c>
+      <c r="F24">
+        <v>0.20170548741001301</v>
+      </c>
+      <c r="G24">
+        <v>0.33119767963192898</v>
+      </c>
+      <c r="H24" s="1">
         <v>244.83720930232599</v>
       </c>
-      <c r="F13">
+      <c r="I24" s="7">
+        <v>210.6196927292583</v>
+      </c>
+      <c r="J24" s="1">
         <v>540.65116279069798</v>
       </c>
-      <c r="G13">
+      <c r="K24">
         <v>17.6457364341085</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="L24">
+        <v>0.40686274509803899</v>
+      </c>
+      <c r="M24">
+        <v>1.21428571428571</v>
+      </c>
+      <c r="N24">
+        <v>43</v>
+      </c>
+      <c r="O24">
+        <v>0.60901841955588298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>44013</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D25" s="7">
         <v>0.67718829260511804</v>
       </c>
-      <c r="E14">
+      <c r="E25" s="7">
+        <v>0.57812117535226915</v>
+      </c>
+      <c r="F25">
+        <v>0.20521561137239</v>
+      </c>
+      <c r="G25">
+        <v>0.30304069579072801</v>
+      </c>
+      <c r="H25" s="1">
         <v>271.269230769231</v>
       </c>
-      <c r="F14">
+      <c r="I25" s="7">
+        <v>215.2850418092562</v>
+      </c>
+      <c r="J25" s="1">
         <v>532.15384615384596</v>
       </c>
-      <c r="G14">
+      <c r="K25">
         <v>14.4628205128205</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>43963</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>0.57204588780152998</v>
-      </c>
-      <c r="E15">
-        <v>179.40740740740699</v>
-      </c>
-      <c r="F15">
-        <v>546.51851851851802</v>
-      </c>
-      <c r="G15">
-        <v>21.850617283950601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>43965</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>0.62291011660073503</v>
-      </c>
-      <c r="E16">
-        <v>228.92857142857099</v>
-      </c>
-      <c r="F16">
-        <v>552.46428571428601</v>
-      </c>
-      <c r="G16">
-        <v>18.0571428571429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>43982</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>0.565461050740514</v>
-      </c>
-      <c r="E17">
-        <v>170.969696969697</v>
-      </c>
-      <c r="F17">
-        <v>543.63636363636397</v>
-      </c>
-      <c r="G17">
-        <v>22.284848484848499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>43983</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>0.64143741764197704</v>
-      </c>
-      <c r="E18">
-        <v>260.45588235294099</v>
-      </c>
-      <c r="F18">
-        <v>550.83823529411802</v>
-      </c>
-      <c r="G18">
-        <v>16.6093137254902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>44003</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>0.50272249879890396</v>
-      </c>
-      <c r="E19">
-        <v>174.51428571428599</v>
-      </c>
-      <c r="F19">
-        <v>522.74285714285702</v>
-      </c>
-      <c r="G19">
-        <v>23.621904761904801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>44004</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>0.60901841955588298</v>
-      </c>
-      <c r="E20">
-        <v>244.83720930232599</v>
-      </c>
-      <c r="F20">
-        <v>540.65116279069798</v>
-      </c>
-      <c r="G20">
-        <v>17.6457364341085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>44013</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+      <c r="L25">
+        <v>0.42685851318944801</v>
+      </c>
+      <c r="M25">
+        <v>1.0958904109589001</v>
+      </c>
+      <c r="N25">
         <v>26</v>
       </c>
-      <c r="D21">
+      <c r="O25">
         <v>0.67718829260511804</v>
-      </c>
-      <c r="E21">
-        <v>271.269230769231</v>
-      </c>
-      <c r="F21">
-        <v>532.15384615384596</v>
-      </c>
-      <c r="G21">
-        <v>14.4628205128205</v>
       </c>
     </row>
   </sheetData>
